--- a/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_testing.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_testing.xlsx
@@ -502,16 +502,16 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8508272412466333</v>
+        <v>0.8464713064713065</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0056945</v>
+        <v>0.01130647</v>
       </c>
       <c r="I2" t="n">
-        <v>0.672906041327094</v>
+        <v>0.6724196855775804</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00168253</v>
+        <v>0.02556654</v>
       </c>
     </row>
     <row r="3">
@@ -570,16 +570,16 @@
         <v>740</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8174522830327955</v>
+        <v>0.825830140485313</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00093852</v>
+        <v>0.00175607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6593538040906461</v>
+        <v>0.6782296650717703</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00274725</v>
+        <v>0.00035491</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:3_mean_of_2_iterations</t>
+          <t>LR_sample:20_cf:1_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -598,22 +598,22 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8189195517289087</v>
+        <v>0.8237986270022885</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00325135</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6663993900836006</v>
+        <v>0.6668857458331143</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00669068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>744</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8180003397893306</v>
+        <v>0.8220533802950574</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00607373</v>
+        <v>0.00283141</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6636521373363479</v>
+        <v>0.6672406540827593</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01493244</v>
+        <v>0.008241760000000001</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:22_cf:3_mean_of_2_iterations</t>
+          <t>LR_sample:22_cf:1_mean_of_2_iterations</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -666,22 +666,22 @@
         <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>766</v>
+        <v>722</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8189142303721757</v>
+        <v>0.8192219679633866</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00136227</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6663993900836005</v>
+        <v>0.6589988958410011</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00119617</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_testing.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_testing.xlsx
@@ -502,13 +502,13 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8501118568232663</v>
+        <v>0.8487584650112867</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6908091908091908</v>
+        <v>0.6970135128029865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>740</v>
       </c>
       <c r="G4" t="n">
-        <v>0.836027713625866</v>
+        <v>0.8232558139534883</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6967506178032493</v>
+        <v>0.6816867343183133</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -604,13 +604,13 @@
         <v>720</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8267898383371826</v>
+        <v>0.8325581395348837</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.680976917819023</v>
+        <v>0.6974604343025396</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>744</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8341013824884793</v>
+        <v>0.8240740740740742</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6912561123087438</v>
+        <v>0.6785845733214154</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>722</v>
       </c>
       <c r="G7" t="n">
-        <v>0.832183908045977</v>
+        <v>0.8352668213457076</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6857616068142384</v>
+        <v>0.6998527788001472</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
